--- a/Results_P3.xlsx
+++ b/Results_P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA64C1-CCD1-4B0F-AA7F-E300E20E00A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539DC2C-4A80-4A8C-B25F-43ED4D38B04E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Петрович Оксана</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>№4</t>
+  </si>
+  <si>
+    <t>№5</t>
+  </si>
+  <si>
+    <t>№6</t>
+  </si>
+  <si>
+    <t>4 (Не нашел 4 задачи. Можете исправить)</t>
   </si>
 </sst>
 </file>
@@ -390,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,7 +410,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -414,8 +423,14 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -425,8 +440,14 @@
       <c r="C2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -442,8 +463,14 @@
       <c r="E3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -456,8 +483,14 @@
       <c r="D4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -467,8 +500,14 @@
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -478,8 +517,14 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -489,8 +534,14 @@
       <c r="C7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -500,8 +551,14 @@
       <c r="C8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -511,8 +568,14 @@
       <c r="C9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -522,8 +585,14 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -539,8 +608,11 @@
       <c r="E11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -550,8 +622,14 @@
       <c r="C12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>

--- a/Results_P3.xlsx
+++ b/Results_P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8539DC2C-4A80-4A8C-B25F-43ED4D38B04E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2AF4DD-A71A-4FD6-B66C-1E4DC0BE205F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Петрович Оксана</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>4 (Не нашел 4 задачи. Можете исправить)</t>
+  </si>
+  <si>
+    <t>№7</t>
+  </si>
+  <si>
+    <t>№8</t>
+  </si>
+  <si>
+    <t>? Вы наверное не все файлы отправили с дз. Жду исправлений</t>
   </si>
 </sst>
 </file>
@@ -399,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -410,7 +419,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -429,8 +438,14 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -446,8 +461,14 @@
       <c r="E2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -469,8 +490,14 @@
       <c r="G3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -489,8 +516,14 @@
       <c r="F4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -506,8 +539,14 @@
       <c r="E5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -523,8 +562,14 @@
       <c r="E6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -540,8 +585,20 @@
       <c r="E7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -557,8 +614,14 @@
       <c r="E8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -574,8 +637,14 @@
       <c r="E9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -591,8 +660,14 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -611,8 +686,17 @@
       <c r="F11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -628,8 +712,14 @@
       <c r="E12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -643,6 +733,12 @@
         <v>5</v>
       </c>
       <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
         <v>5</v>
       </c>
     </row>

--- a/Results_P3.xlsx
+++ b/Results_P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2AF4DD-A71A-4FD6-B66C-1E4DC0BE205F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7D208-8801-4829-B821-159706E7EECE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Петрович Оксана</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>№8</t>
-  </si>
-  <si>
-    <t>? Вы наверное не все файлы отправили с дз. Жду исправлений</t>
   </si>
 </sst>
 </file>
@@ -411,7 +408,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,8 +582,8 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
+      <c r="F7">
+        <v>5</v>
       </c>
       <c r="G7">
         <v>5</v>

--- a/Results_P3.xlsx
+++ b/Results_P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7D208-8801-4829-B821-159706E7EECE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555B5CF8-9741-47F3-AC5E-8A06BC20F837}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Петрович Оксана</t>
   </si>
@@ -88,16 +88,50 @@
   </si>
   <si>
     <t>№8</t>
+  </si>
+  <si>
+    <t>№9</t>
+  </si>
+  <si>
+    <t>№10</t>
+  </si>
+  <si>
+    <t>№11</t>
+  </si>
+  <si>
+    <t>№12</t>
+  </si>
+  <si>
+    <t>№13</t>
+  </si>
+  <si>
+    <t>4 (Я бы проверил больше случаев, нашел сразу такую проблему my_range(-13,1, 0)). Жду исправлений</t>
+  </si>
+  <si>
+    <t>4(too late)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,8 +157,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -405,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,7 +451,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -441,8 +476,23 @@
       <c r="I1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -464,8 +514,17 @@
       <c r="G2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -493,8 +552,11 @@
       <c r="I3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -519,8 +581,11 @@
       <c r="H4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -539,11 +604,20 @@
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -565,8 +639,14 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -595,8 +675,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
@@ -617,8 +697,14 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -634,19 +720,25 @@
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -663,8 +755,14 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -693,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -715,8 +813,14 @@
       <c r="G12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -736,6 +840,12 @@
         <v>5</v>
       </c>
       <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
         <v>5</v>
       </c>
     </row>
@@ -743,6 +853,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A13">
     <sortCondition ref="A2:A13"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results_P3.xlsx
+++ b/Results_P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555B5CF8-9741-47F3-AC5E-8A06BC20F837}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99883C0-AE8D-4F39-BC97-2BCB3C57909B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Петрович Оксана</t>
   </si>
@@ -105,10 +105,17 @@
     <t>№13</t>
   </si>
   <si>
-    <t>4 (Я бы проверил больше случаев, нашел сразу такую проблему my_range(-13,1, 0)). Жду исправлений</t>
-  </si>
-  <si>
     <t>4(too late)</t>
+  </si>
+  <si>
+    <t>4 (перегрузка отлично, однако такой вариант, например for i in ranger(1,10,-2):
+    print(i) даст неправильный результат)</t>
+  </si>
+  <si>
+    <t>5(чтобы csv строки не имели пропуска есть параметр newline)</t>
+  </si>
+  <si>
+    <t>5 (well done)</t>
   </si>
 </sst>
 </file>
@@ -157,9 +164,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,7 +453,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,8 +530,11 @@
       <c r="I2">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
-        <v>26</v>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -555,8 +568,11 @@
       <c r="J3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -581,7 +597,13 @@
       <c r="H4">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
@@ -605,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -614,6 +636,9 @@
         <v>5</v>
       </c>
       <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
     </row>
@@ -645,6 +670,12 @@
       <c r="I6">
         <v>5</v>
       </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -674,6 +705,12 @@
       <c r="I7">
         <v>5</v>
       </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -691,8 +728,8 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>26</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -701,6 +738,12 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
     </row>
@@ -721,15 +764,21 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
         <v>0</v>
       </c>
     </row>
@@ -738,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -759,6 +808,12 @@
         <v>0</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0</v>
       </c>
     </row>
@@ -790,6 +845,18 @@
       <c r="I11">
         <v>5</v>
       </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -817,6 +884,12 @@
         <v>5</v>
       </c>
       <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
         <v>5</v>
       </c>
     </row>
@@ -847,6 +920,12 @@
       </c>
       <c r="I13">
         <v>5</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Results_P3.xlsx
+++ b/Results_P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99883C0-AE8D-4F39-BC97-2BCB3C57909B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4FAD06-ACBE-4751-B88A-51E36AD1D426}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Петрович Оксана</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>5 (well done)</t>
+  </si>
+  <si>
+    <t>4(late)</t>
+  </si>
+  <si>
+    <t>5 (Некоторые использовали openweather api чтобы их не блокировали)</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -536,6 +542,12 @@
       <c r="K2">
         <v>5</v>
       </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -571,6 +583,12 @@
       <c r="K3">
         <v>5</v>
       </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -603,7 +621,13 @@
       <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
     </row>
@@ -641,6 +665,12 @@
       <c r="K5">
         <v>5</v>
       </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -676,6 +706,12 @@
       <c r="K6">
         <v>5</v>
       </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -711,6 +747,12 @@
       <c r="K7">
         <v>0</v>
       </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -731,11 +773,11 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -744,6 +786,12 @@
         <v>0</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
@@ -781,6 +829,12 @@
       <c r="K9">
         <v>0</v>
       </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -814,6 +868,12 @@
         <v>0</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>0</v>
       </c>
     </row>
@@ -857,6 +917,9 @@
       <c r="M11" t="s">
         <v>29</v>
       </c>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -890,6 +953,12 @@
         <v>5</v>
       </c>
       <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
         <v>5</v>
       </c>
     </row>
@@ -926,6 +995,12 @@
       </c>
       <c r="K13">
         <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Results_P3.xlsx
+++ b/Results_P3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4FAD06-ACBE-4751-B88A-51E36AD1D426}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953EFE13-52C7-4A47-84FF-EB835938BD3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Петрович Оксана</t>
   </si>
@@ -108,20 +108,41 @@
     <t>4(too late)</t>
   </si>
   <si>
-    <t>4 (перегрузка отлично, однако такой вариант, например for i in ranger(1,10,-2):
+    <t>5(чтобы csv строки не имели пропуска есть параметр newline)</t>
+  </si>
+  <si>
+    <t>5 (well done)</t>
+  </si>
+  <si>
+    <t>4(late)</t>
+  </si>
+  <si>
+    <t>5 (Некоторые использовали openweather api чтобы их не блокировали)</t>
+  </si>
+  <si>
+    <t>4 (перегрузка отлично, однако такой вариант, например for i in range(1,10,-2): не работает
     print(i) даст неправильный результат)</t>
   </si>
   <si>
-    <t>5(чтобы csv строки не имели пропуска есть параметр newline)</t>
-  </si>
-  <si>
-    <t>5 (well done)</t>
-  </si>
-  <si>
-    <t>4(late)</t>
-  </si>
-  <si>
-    <t>5 (Некоторые использовали openweather api чтобы их не блокировали)</t>
+    <t>№14</t>
+  </si>
+  <si>
+    <t>№15</t>
+  </si>
+  <si>
+    <t>№16</t>
+  </si>
+  <si>
+    <t>5(Хотелось бы все таки небольшой отчет)</t>
+  </si>
+  <si>
+    <t>5 (Можно попробовать оптимизировать работу на процессах. Например, каждый процесс может обрабатывать несколько каких-то вещей сразу. Массив, например)</t>
+  </si>
+  <si>
+    <t>5 (openweather можно использовать)</t>
+  </si>
+  <si>
+    <t>5 (Для ускорения можно совмещать многопроцесный вариант и асинхронный например)</t>
   </si>
 </sst>
 </file>
@@ -456,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,7 +488,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -507,8 +528,17 @@
       <c r="N1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -548,8 +578,14 @@
       <c r="M2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -589,8 +625,14 @@
       <c r="M3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -619,19 +661,25 @@
         <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4">
         <v>5</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -671,8 +719,14 @@
       <c r="M5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -712,9 +766,15 @@
       <c r="M6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -744,8 +804,8 @@
       <c r="J7">
         <v>5</v>
       </c>
-      <c r="K7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>29</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -753,8 +813,14 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -774,10 +840,10 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -794,9 +860,15 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -832,11 +904,17 @@
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -876,8 +954,14 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -912,16 +996,25 @@
         <v>5</v>
       </c>
       <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
         <v>28</v>
       </c>
-      <c r="M11" t="s">
-        <v>29</v>
-      </c>
       <c r="N11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -961,8 +1054,14 @@
       <c r="M12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1001,6 +1100,18 @@
       </c>
       <c r="M13">
         <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Results_P3.xlsx
+++ b/Results_P3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953EFE13-52C7-4A47-84FF-EB835938BD3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FFEF9F-0C6B-4575-A70B-BD15C384D304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Петрович Оксана</t>
   </si>
@@ -143,13 +143,34 @@
   </si>
   <si>
     <t>5 (Для ускорения можно совмещать многопроцесный вариант и асинхронный например)</t>
+  </si>
+  <si>
+    <t>№17</t>
+  </si>
+  <si>
+    <t>№18</t>
+  </si>
+  <si>
+    <t>5(хотя позже срока, но понравилась реаилизация с прокси)</t>
+  </si>
+  <si>
+    <t>4(позже срока. Можно было использовать прокси сервер или openweather)</t>
+  </si>
+  <si>
+    <t>4(late. Возможно, можно проверить скорость работы на одинаковом кол-ве работников для различных вариантов))</t>
+  </si>
+  <si>
+    <t>0 (пока задание выполнено не полнстью)</t>
+  </si>
+  <si>
+    <t>5(хотелось б некотрый отчет)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +189,13 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -191,12 +219,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -477,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,7 +517,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -537,8 +566,14 @@
       <c r="Q1" t="s">
         <v>34</v>
       </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -584,8 +619,14 @@
       <c r="O2">
         <v>5</v>
       </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -628,11 +669,17 @@
       <c r="N3" t="s">
         <v>35</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -672,14 +719,20 @@
       <c r="M4" t="s">
         <v>29</v>
       </c>
-      <c r="N4">
-        <v>0</v>
+      <c r="N4" t="s">
+        <v>41</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -722,11 +775,17 @@
       <c r="N5">
         <v>5</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -772,8 +831,14 @@
       <c r="O6" t="s">
         <v>36</v>
       </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -819,8 +884,14 @@
       <c r="O7">
         <v>0</v>
       </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -866,9 +937,15 @@
       <c r="O8">
         <v>0</v>
       </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -907,14 +984,20 @@
       <c r="M9" t="s">
         <v>29</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,8 +1043,14 @@
       <c r="O10">
         <v>0</v>
       </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1060,8 +1149,14 @@
       <c r="O12">
         <v>5</v>
       </c>
+      <c r="P12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>

--- a/Results_P3.xlsx
+++ b/Results_P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FFEF9F-0C6B-4575-A70B-BD15C384D304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6E3FE4-F384-4072-8B00-8120DD901B28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>Петрович Оксана</t>
   </si>
@@ -164,13 +164,22 @@
   </si>
   <si>
     <t>5(хотелось б некотрый отчет)</t>
+  </si>
+  <si>
+    <t>№19</t>
+  </si>
+  <si>
+    <t>№20</t>
+  </si>
+  <si>
+    <t>5(по умолчанию в докере все с правами sudo, однако, это можно регулировать)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,9 +202,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -219,12 +244,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -506,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,7 +544,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -572,9 +599,15 @@
       <c r="S1" t="s">
         <v>40</v>
       </c>
+      <c r="T1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -625,8 +658,14 @@
       <c r="Q2">
         <v>5</v>
       </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -675,11 +714,17 @@
       <c r="P3">
         <v>5</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -722,17 +767,23 @@
       <c r="N4" t="s">
         <v>41</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -781,12 +832,18 @@
       <c r="P5">
         <v>5</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -837,8 +894,20 @@
       <c r="Q6">
         <v>5</v>
       </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +941,8 @@
       <c r="K7" t="s">
         <v>29</v>
       </c>
-      <c r="L7">
-        <v>0</v>
+      <c r="L7" t="s">
+        <v>29</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -890,8 +959,14 @@
       <c r="Q7">
         <v>0</v>
       </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,9 +1018,15 @@
       <c r="Q8">
         <v>0</v>
       </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -993,11 +1074,17 @@
       <c r="P9">
         <v>5</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,11 +1094,11 @@
       <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1049,9 +1136,15 @@
       <c r="Q10" t="s">
         <v>44</v>
       </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11">
@@ -1102,8 +1195,14 @@
       <c r="Q11">
         <v>5</v>
       </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1155,9 +1254,15 @@
       <c r="Q12">
         <v>0</v>
       </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B13">
@@ -1207,6 +1312,12 @@
       </c>
       <c r="Q13" t="s">
         <v>38</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Results_P3.xlsx
+++ b/Results_P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6E3FE4-F384-4072-8B00-8120DD901B28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29F3697-2A5A-4146-BC34-38E76AAB9111}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>Петрович Оксана</t>
   </si>
@@ -173,13 +173,25 @@
   </si>
   <si>
     <t>5(по умолчанию в докере все с правами sudo, однако, это можно регулировать)</t>
+  </si>
+  <si>
+    <t>№21</t>
+  </si>
+  <si>
+    <t>5(docker-compose down именно удаляет контейнеры, хотя их можно останаливать тоже https://docs.docker.com/engine/reference/commandline/stop/)</t>
+  </si>
+  <si>
+    <t>5(не хватает gitignore)</t>
+  </si>
+  <si>
+    <t>5(pg_data: null так в  volumes обычно не пишут, не уверен, будет ли работать, такую "услугу" делает black)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +235,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -253,6 +272,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -533,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,7 +564,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -605,8 +625,11 @@
       <c r="U1" t="s">
         <v>47</v>
       </c>
+      <c r="V1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -664,9 +687,15 @@
       <c r="S2">
         <v>5</v>
       </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
@@ -720,11 +749,17 @@
       <c r="R3">
         <v>5</v>
       </c>
-      <c r="S3">
-        <v>0</v>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -782,9 +817,15 @@
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5">
@@ -838,11 +879,17 @@
       <c r="R5">
         <v>5</v>
       </c>
-      <c r="S5">
-        <v>0</v>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -907,7 +954,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -944,8 +991,8 @@
       <c r="L7" t="s">
         <v>29</v>
       </c>
-      <c r="M7">
-        <v>0</v>
+      <c r="M7" t="s">
+        <v>29</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -965,8 +1012,14 @@
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1024,8 +1077,14 @@
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1083,8 +1142,14 @@
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,8 +1165,8 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>29</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1142,8 +1207,14 @@
       <c r="S10">
         <v>0</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1201,8 +1272,17 @@
       <c r="S11">
         <v>5</v>
       </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1260,9 +1340,15 @@
       <c r="S12">
         <v>5</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B13">
@@ -1316,8 +1402,14 @@
       <c r="R13">
         <v>0</v>
       </c>
-      <c r="S13">
-        <v>0</v>
+      <c r="S13" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Results_P3.xlsx
+++ b/Results_P3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29F3697-2A5A-4146-BC34-38E76AAB9111}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7159DEB-94B8-4C21-AF48-0064CC6F1EE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>Петрович Оксана</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>5(pg_data: null так в  volumes обычно не пишут, не уверен, будет ли работать, такую "услугу" делает black)</t>
+  </si>
+  <si>
+    <t>№22(1)</t>
+  </si>
+  <si>
+    <t>№22(2)</t>
   </si>
 </sst>
 </file>
@@ -553,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,7 +570,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -628,8 +634,14 @@
       <c r="V1" t="s">
         <v>49</v>
       </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -693,8 +705,11 @@
       <c r="U2" t="s">
         <v>50</v>
       </c>
+      <c r="V2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -758,8 +773,11 @@
       <c r="U3">
         <v>5</v>
       </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -817,14 +835,17 @@
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
+      <c r="T4" t="s">
+        <v>29</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -889,7 +910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -953,8 +974,11 @@
       <c r="U6" t="s">
         <v>48</v>
       </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -994,14 +1018,14 @@
       <c r="M7" t="s">
         <v>29</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1018,8 +1042,11 @@
       <c r="U7">
         <v>0</v>
       </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1044,8 +1071,8 @@
       <c r="H8" t="s">
         <v>29</v>
       </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="I8" t="s">
+        <v>29</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1083,8 +1110,11 @@
       <c r="U8">
         <v>0</v>
       </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1148,8 +1178,11 @@
       <c r="U9">
         <v>0</v>
       </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1213,8 +1246,11 @@
       <c r="U10">
         <v>0</v>
       </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1318,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1341,13 +1377,16 @@
         <v>5</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>3</v>
       </c>
@@ -1410,6 +1449,9 @@
       </c>
       <c r="U13" t="s">
         <v>52</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Results_P3.xlsx
+++ b/Results_P3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7159DEB-94B8-4C21-AF48-0064CC6F1EE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E80672E-D543-4CFA-A62B-9970A896F2F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>Петрович Оксана</t>
   </si>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,8 +832,8 @@
       <c r="R4">
         <v>5</v>
       </c>
-      <c r="S4">
-        <v>0</v>
+      <c r="S4" t="s">
+        <v>29</v>
       </c>
       <c r="T4" t="s">
         <v>29</v>
@@ -846,7 +846,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5">
@@ -908,6 +908,9 @@
       </c>
       <c r="U5">
         <v>5</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -979,7 +982,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -1027,17 +1030,17 @@
       <c r="P7" t="s">
         <v>29</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
+      <c r="Q7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1074,11 +1077,11 @@
       <c r="I8" t="s">
         <v>29</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
       </c>
       <c r="L8">
         <v>0</v>

--- a/Results_P3.xlsx
+++ b/Results_P3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E80672E-D543-4CFA-A62B-9970A896F2F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE4F758-9713-44B3-9B20-0C857DCBA12B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>Петрович Оксана</t>
   </si>
@@ -191,13 +191,25 @@
   </si>
   <si>
     <t>№22(2)</t>
+  </si>
+  <si>
+    <t>30/30 (я бы разбил проект по репозиториям, чтоб, в продакщене так обычно делают. Так проще его поддерживать)</t>
+  </si>
+  <si>
+    <t>20/20</t>
+  </si>
+  <si>
+    <t>20/30(Неполное выполнение. Ответ на вопрос: Обычно используют docker secrets и docker config. В основном в docker sworm)</t>
+  </si>
+  <si>
+    <t>15/20(https://fastapi.tiangolo.com/advanced/testing-database/?h=testing - про тестирование, docker-swarm достаточно хитро работает - отсюда видимо и адрес. https://docs.docker.com/engine/swarm/ingress/). Предположение по поводу портов верное.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,36 +219,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,16 +251,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -561,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,6 +687,12 @@
       <c r="V2">
         <v>5</v>
       </c>
+      <c r="W2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -778,7 +763,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4">
@@ -805,7 +790,7 @@
       <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K4" t="s">
@@ -846,7 +831,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5">
@@ -914,7 +899,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -982,7 +967,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -1042,15 +1027,15 @@
       <c r="T7" t="s">
         <v>29</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
+      <c r="U7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8">
@@ -1118,7 +1103,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1186,7 +1171,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
@@ -1320,6 +1305,12 @@
       <c r="V11" t="s">
         <v>51</v>
       </c>
+      <c r="W11" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1390,7 +1381,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13">
